--- a/Color Magic/Color Magic BOM.xlsx
+++ b/Color Magic/Color Magic BOM.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Henry/Desktop/Color Magic/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19AE9009-0BCD-9746-BE9C-DADC22988A55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96B249F-88B6-2940-9DC3-84A5CEF5B508}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9080" yWindow="-18360" windowWidth="25080" windowHeight="15820" xr2:uid="{1B945B1A-6BDE-8C4C-BC11-B7EFEC0FEA23}"/>
+    <workbookView xWindow="8120" yWindow="-22460" windowWidth="25080" windowHeight="15820" xr2:uid="{1B945B1A-6BDE-8C4C-BC11-B7EFEC0FEA23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="380" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="387" uniqueCount="227">
   <si>
     <t>U1</t>
   </si>
@@ -709,6 +709,27 @@
   </si>
   <si>
     <t>660-MF1/4LCT52R562J</t>
+  </si>
+  <si>
+    <t>14 pin socket 0.3 wide</t>
+  </si>
+  <si>
+    <t>16 oinsocket 0.3 wide</t>
+  </si>
+  <si>
+    <t>20 pin socket 0.3 wide</t>
+  </si>
+  <si>
+    <t>24 pin socket 0.3 wide</t>
+  </si>
+  <si>
+    <t>24 socket 0.6 wide</t>
+  </si>
+  <si>
+    <t>28 socket 0.6 wide</t>
+  </si>
+  <si>
+    <t>40 socket 0.6 wide</t>
   </si>
 </sst>
 </file>
@@ -778,7 +799,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -807,7 +828,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="17" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1150,11 +1170,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3211D680-2525-C54F-8BA7-5B335057A5B7}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1401,6 +1421,9 @@
       <c r="B19" t="s">
         <v>96</v>
       </c>
+      <c r="C19" s="7">
+        <v>20</v>
+      </c>
       <c r="D19" t="s">
         <v>195</v>
       </c>
@@ -1415,6 +1438,9 @@
       <c r="B20" t="s">
         <v>138</v>
       </c>
+      <c r="C20" s="7">
+        <v>20</v>
+      </c>
       <c r="D20" s="9" t="s">
         <v>171</v>
       </c>
@@ -1429,6 +1455,9 @@
       <c r="B21" t="s">
         <v>139</v>
       </c>
+      <c r="C21" s="7">
+        <v>16</v>
+      </c>
       <c r="D21" s="9" t="s">
         <v>172</v>
       </c>
@@ -1443,6 +1472,9 @@
       <c r="B22" t="s">
         <v>140</v>
       </c>
+      <c r="C22" s="7">
+        <v>16</v>
+      </c>
       <c r="D22" s="10" t="s">
         <v>173</v>
       </c>
@@ -1457,6 +1489,9 @@
       <c r="B23" t="s">
         <v>138</v>
       </c>
+      <c r="C23" s="7">
+        <v>20</v>
+      </c>
       <c r="D23" s="9" t="s">
         <v>171</v>
       </c>
@@ -1471,6 +1506,9 @@
       <c r="B24" t="s">
         <v>141</v>
       </c>
+      <c r="C24" s="7">
+        <v>14</v>
+      </c>
       <c r="D24" s="9" t="s">
         <v>175</v>
       </c>
@@ -1485,6 +1523,9 @@
       <c r="B25" t="s">
         <v>89</v>
       </c>
+      <c r="C25">
+        <v>28</v>
+      </c>
       <c r="D25" s="9" t="s">
         <v>89</v>
       </c>
@@ -1499,6 +1540,9 @@
       <c r="B26" t="s">
         <v>89</v>
       </c>
+      <c r="C26" s="7">
+        <v>28</v>
+      </c>
       <c r="D26" s="9" t="s">
         <v>89</v>
       </c>
@@ -1513,6 +1557,9 @@
       <c r="B27" t="s">
         <v>142</v>
       </c>
+      <c r="C27" s="7">
+        <v>14</v>
+      </c>
       <c r="D27" s="10" t="s">
         <v>174</v>
       </c>
@@ -1527,6 +1574,9 @@
       <c r="B28" t="s">
         <v>143</v>
       </c>
+      <c r="C28" s="7">
+        <v>16</v>
+      </c>
       <c r="D28" s="9" t="s">
         <v>176</v>
       </c>
@@ -1541,6 +1591,9 @@
       <c r="B29" t="s">
         <v>144</v>
       </c>
+      <c r="C29" s="7">
+        <v>20</v>
+      </c>
       <c r="D29" s="9" t="s">
         <v>177</v>
       </c>
@@ -1555,6 +1608,9 @@
       <c r="B30" t="s">
         <v>145</v>
       </c>
+      <c r="C30" s="7">
+        <v>16</v>
+      </c>
       <c r="D30" s="9" t="s">
         <v>178</v>
       </c>
@@ -1569,6 +1625,9 @@
       <c r="B31" t="s">
         <v>146</v>
       </c>
+      <c r="C31" s="7">
+        <v>14</v>
+      </c>
       <c r="D31" s="10" t="s">
         <v>179</v>
       </c>
@@ -1583,7 +1642,7 @@
       <c r="B32" t="s">
         <v>166</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="9" t="s">
         <v>196</v>
       </c>
       <c r="E32" t="s">
@@ -1597,6 +1656,9 @@
       <c r="B33" t="s">
         <v>139</v>
       </c>
+      <c r="C33" s="7">
+        <v>16</v>
+      </c>
       <c r="D33" s="10" t="s">
         <v>172</v>
       </c>
@@ -1611,6 +1673,9 @@
       <c r="B34" t="s">
         <v>88</v>
       </c>
+      <c r="C34" s="7">
+        <v>24</v>
+      </c>
       <c r="D34" s="9" t="s">
         <v>88</v>
       </c>
@@ -1625,6 +1690,9 @@
       <c r="B35" t="s">
         <v>147</v>
       </c>
+      <c r="C35" s="7">
+        <v>16</v>
+      </c>
       <c r="D35" s="10" t="s">
         <v>180</v>
       </c>
@@ -1639,6 +1707,9 @@
       <c r="B36" t="s">
         <v>96</v>
       </c>
+      <c r="C36" s="7">
+        <v>20</v>
+      </c>
       <c r="D36" s="9" t="s">
         <v>195</v>
       </c>
@@ -1653,6 +1724,9 @@
       <c r="B37" t="s">
         <v>148</v>
       </c>
+      <c r="C37" s="7">
+        <v>14</v>
+      </c>
       <c r="D37" s="10" t="s">
         <v>181</v>
       </c>
@@ -1667,6 +1741,9 @@
       <c r="B38" t="s">
         <v>149</v>
       </c>
+      <c r="C38" s="7">
+        <v>16</v>
+      </c>
       <c r="D38" s="9" t="s">
         <v>182</v>
       </c>
@@ -1681,6 +1758,9 @@
       <c r="B39" t="s">
         <v>150</v>
       </c>
+      <c r="C39" s="7">
+        <v>14</v>
+      </c>
       <c r="D39" s="9" t="s">
         <v>184</v>
       </c>
@@ -1695,6 +1775,9 @@
       <c r="B40" t="s">
         <v>151</v>
       </c>
+      <c r="C40" s="7">
+        <v>14</v>
+      </c>
       <c r="D40" s="9" t="s">
         <v>185</v>
       </c>
@@ -1709,6 +1792,9 @@
       <c r="B41" t="s">
         <v>165</v>
       </c>
+      <c r="C41" s="7">
+        <v>28</v>
+      </c>
       <c r="D41" s="9" t="s">
         <v>197</v>
       </c>
@@ -1723,6 +1809,9 @@
       <c r="B42" t="s">
         <v>138</v>
       </c>
+      <c r="C42" s="7">
+        <v>20</v>
+      </c>
       <c r="D42" s="9" t="s">
         <v>171</v>
       </c>
@@ -1737,6 +1826,9 @@
       <c r="B43" t="s">
         <v>164</v>
       </c>
+      <c r="C43" s="7">
+        <v>40</v>
+      </c>
       <c r="D43" s="9" t="s">
         <v>91</v>
       </c>
@@ -1751,6 +1843,9 @@
       <c r="B44" t="s">
         <v>198</v>
       </c>
+      <c r="C44" s="7">
+        <v>40</v>
+      </c>
       <c r="D44" s="9" t="s">
         <v>199</v>
       </c>
@@ -1765,6 +1860,9 @@
       <c r="B45" t="s">
         <v>140</v>
       </c>
+      <c r="C45" s="7">
+        <v>16</v>
+      </c>
       <c r="D45" s="9" t="s">
         <v>173</v>
       </c>
@@ -1779,6 +1877,9 @@
       <c r="B46" t="s">
         <v>148</v>
       </c>
+      <c r="C46" s="7">
+        <v>14</v>
+      </c>
       <c r="D46" s="10" t="s">
         <v>181</v>
       </c>
@@ -1793,6 +1894,9 @@
       <c r="B47" t="s">
         <v>147</v>
       </c>
+      <c r="C47" s="7">
+        <v>16</v>
+      </c>
       <c r="D47" s="10" t="s">
         <v>180</v>
       </c>
@@ -1807,6 +1911,9 @@
       <c r="B48" t="s">
         <v>148</v>
       </c>
+      <c r="C48" s="7">
+        <v>14</v>
+      </c>
       <c r="D48" s="10" t="s">
         <v>181</v>
       </c>
@@ -1821,6 +1928,9 @@
       <c r="B49" t="s">
         <v>152</v>
       </c>
+      <c r="C49" s="7">
+        <v>14</v>
+      </c>
       <c r="D49" s="9" t="s">
         <v>186</v>
       </c>
@@ -1835,6 +1945,9 @@
       <c r="B50" t="s">
         <v>148</v>
       </c>
+      <c r="C50" s="7">
+        <v>14</v>
+      </c>
       <c r="D50" s="10" t="s">
         <v>181</v>
       </c>
@@ -1849,6 +1962,9 @@
       <c r="B51" t="s">
         <v>153</v>
       </c>
+      <c r="C51" s="7">
+        <v>14</v>
+      </c>
       <c r="D51" s="10" t="s">
         <v>187</v>
       </c>
@@ -1863,6 +1979,9 @@
       <c r="B52" t="s">
         <v>154</v>
       </c>
+      <c r="C52" s="7">
+        <v>16</v>
+      </c>
       <c r="D52" s="10" t="s">
         <v>188</v>
       </c>
@@ -1877,6 +1996,9 @@
       <c r="B53" t="s">
         <v>155</v>
       </c>
+      <c r="C53" s="7">
+        <v>14</v>
+      </c>
       <c r="D53" s="10" t="s">
         <v>189</v>
       </c>
@@ -1891,6 +2013,9 @@
       <c r="B54" t="s">
         <v>146</v>
       </c>
+      <c r="C54" s="7">
+        <v>14</v>
+      </c>
       <c r="D54" s="10" t="s">
         <v>179</v>
       </c>
@@ -1905,6 +2030,9 @@
       <c r="B55" t="s">
         <v>156</v>
       </c>
+      <c r="C55" s="7">
+        <v>20</v>
+      </c>
       <c r="D55" s="9" t="s">
         <v>200</v>
       </c>
@@ -1919,6 +2047,9 @@
       <c r="B56" t="s">
         <v>147</v>
       </c>
+      <c r="C56" s="7">
+        <v>16</v>
+      </c>
       <c r="D56" s="9" t="s">
         <v>180</v>
       </c>
@@ -1933,6 +2064,9 @@
       <c r="B57" t="s">
         <v>144</v>
       </c>
+      <c r="C57" s="7">
+        <v>20</v>
+      </c>
       <c r="D57" s="9" t="s">
         <v>177</v>
       </c>
@@ -1947,6 +2081,9 @@
       <c r="B58" t="s">
         <v>144</v>
       </c>
+      <c r="C58" s="7">
+        <v>20</v>
+      </c>
       <c r="D58" s="9" t="s">
         <v>177</v>
       </c>
@@ -1961,6 +2098,9 @@
       <c r="B59" t="s">
         <v>144</v>
       </c>
+      <c r="C59" s="7">
+        <v>20</v>
+      </c>
       <c r="D59" s="9" t="s">
         <v>177</v>
       </c>
@@ -1975,6 +2115,9 @@
       <c r="B60" t="s">
         <v>157</v>
       </c>
+      <c r="C60" s="7">
+        <v>20</v>
+      </c>
       <c r="D60" s="9" t="s">
         <v>183</v>
       </c>
@@ -1989,6 +2132,9 @@
       <c r="B61" t="s">
         <v>157</v>
       </c>
+      <c r="C61" s="7">
+        <v>20</v>
+      </c>
       <c r="D61" s="9" t="s">
         <v>183</v>
       </c>
@@ -2003,6 +2149,9 @@
       <c r="B62" t="s">
         <v>144</v>
       </c>
+      <c r="C62" s="7">
+        <v>20</v>
+      </c>
       <c r="D62" s="9" t="s">
         <v>177</v>
       </c>
@@ -2017,6 +2166,9 @@
       <c r="B63" t="s">
         <v>144</v>
       </c>
+      <c r="C63" s="7">
+        <v>20</v>
+      </c>
       <c r="D63" s="9" t="s">
         <v>177</v>
       </c>
@@ -2031,6 +2183,9 @@
       <c r="B64" t="s">
         <v>154</v>
       </c>
+      <c r="C64" s="7">
+        <v>16</v>
+      </c>
       <c r="D64" s="9" t="s">
         <v>188</v>
       </c>
@@ -2045,6 +2200,9 @@
       <c r="B65" t="s">
         <v>144</v>
       </c>
+      <c r="C65" s="7">
+        <v>20</v>
+      </c>
       <c r="D65" s="9" t="s">
         <v>177</v>
       </c>
@@ -2059,6 +2217,9 @@
       <c r="B66" t="s">
         <v>144</v>
       </c>
+      <c r="C66" s="7">
+        <v>20</v>
+      </c>
       <c r="D66" s="9" t="s">
         <v>177</v>
       </c>
@@ -2087,6 +2248,9 @@
       <c r="B68" t="s">
         <v>140</v>
       </c>
+      <c r="C68" s="7">
+        <v>16</v>
+      </c>
       <c r="D68" s="10" t="s">
         <v>173</v>
       </c>
@@ -2101,6 +2265,9 @@
       <c r="B69" s="4" t="s">
         <v>168</v>
       </c>
+      <c r="C69" s="7">
+        <v>14</v>
+      </c>
       <c r="D69" s="11" t="s">
         <v>201</v>
       </c>
@@ -2115,6 +2282,9 @@
       <c r="B70" t="s">
         <v>158</v>
       </c>
+      <c r="C70" s="7">
+        <v>14</v>
+      </c>
       <c r="D70" s="10" t="s">
         <v>190</v>
       </c>
@@ -2129,6 +2299,9 @@
       <c r="B71" t="s">
         <v>146</v>
       </c>
+      <c r="C71" s="7">
+        <v>14</v>
+      </c>
       <c r="D71" s="10" t="s">
         <v>179</v>
       </c>
@@ -2143,6 +2316,9 @@
       <c r="B72" t="s">
         <v>159</v>
       </c>
+      <c r="C72" s="7">
+        <v>20</v>
+      </c>
       <c r="D72" s="9" t="s">
         <v>191</v>
       </c>
@@ -2157,6 +2333,9 @@
       <c r="B73" t="s">
         <v>88</v>
       </c>
+      <c r="C73" s="7">
+        <v>24</v>
+      </c>
       <c r="D73" s="9" t="s">
         <v>88</v>
       </c>
@@ -2171,6 +2350,9 @@
       <c r="B74" t="s">
         <v>159</v>
       </c>
+      <c r="C74" s="7">
+        <v>20</v>
+      </c>
       <c r="D74" s="9" t="s">
         <v>191</v>
       </c>
@@ -2185,6 +2367,9 @@
       <c r="B75" t="s">
         <v>144</v>
       </c>
+      <c r="C75" s="7">
+        <v>20</v>
+      </c>
       <c r="D75" s="9" t="s">
         <v>177</v>
       </c>
@@ -2199,6 +2384,9 @@
       <c r="B76" t="s">
         <v>144</v>
       </c>
+      <c r="C76" s="7">
+        <v>20</v>
+      </c>
       <c r="D76" s="9" t="s">
         <v>177</v>
       </c>
@@ -2213,6 +2401,9 @@
       <c r="B77" t="s">
         <v>144</v>
       </c>
+      <c r="C77" s="7">
+        <v>20</v>
+      </c>
       <c r="D77" s="9" t="s">
         <v>177</v>
       </c>
@@ -2227,6 +2418,9 @@
       <c r="B78" t="s">
         <v>157</v>
       </c>
+      <c r="C78" s="7">
+        <v>20</v>
+      </c>
       <c r="D78" s="9" t="s">
         <v>183</v>
       </c>
@@ -2241,6 +2435,9 @@
       <c r="B79" t="s">
         <v>96</v>
       </c>
+      <c r="C79" s="7">
+        <v>20</v>
+      </c>
       <c r="D79" s="9" t="s">
         <v>195</v>
       </c>
@@ -2255,6 +2452,9 @@
       <c r="B80" t="s">
         <v>158</v>
       </c>
+      <c r="C80" s="7">
+        <v>14</v>
+      </c>
       <c r="D80" s="10" t="s">
         <v>190</v>
       </c>
@@ -2269,6 +2469,9 @@
       <c r="B81" t="s">
         <v>146</v>
       </c>
+      <c r="C81" s="7">
+        <v>14</v>
+      </c>
       <c r="D81" s="10" t="s">
         <v>179</v>
       </c>
@@ -2283,6 +2486,9 @@
       <c r="B82" t="s">
         <v>146</v>
       </c>
+      <c r="C82" s="7">
+        <v>14</v>
+      </c>
       <c r="D82" s="10" t="s">
         <v>179</v>
       </c>
@@ -2297,6 +2503,9 @@
       <c r="B83" t="s">
         <v>146</v>
       </c>
+      <c r="C83" s="7">
+        <v>14</v>
+      </c>
       <c r="D83" s="10" t="s">
         <v>179</v>
       </c>
@@ -2311,6 +2520,9 @@
       <c r="B84" s="4" t="s">
         <v>162</v>
       </c>
+      <c r="C84" s="7">
+        <v>14</v>
+      </c>
       <c r="D84" s="11" t="s">
         <v>202</v>
       </c>
@@ -2325,6 +2537,9 @@
       <c r="B85" t="s">
         <v>160</v>
       </c>
+      <c r="C85" s="7">
+        <v>14</v>
+      </c>
       <c r="D85" s="9" t="s">
         <v>192</v>
       </c>
@@ -2339,7 +2554,10 @@
       <c r="B86" t="s">
         <v>163</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="C86" s="7">
+        <v>24</v>
+      </c>
+      <c r="D86" s="12" t="s">
         <v>203</v>
       </c>
       <c r="E86" t="s">
@@ -2353,6 +2571,9 @@
       <c r="B87" t="s">
         <v>161</v>
       </c>
+      <c r="C87" s="7">
+        <v>14</v>
+      </c>
       <c r="D87" s="10" t="s">
         <v>193</v>
       </c>
@@ -2457,7 +2678,7 @@
       <c r="C97">
         <v>1</v>
       </c>
-      <c r="D97" s="14" t="s">
+      <c r="D97" s="13" t="s">
         <v>211</v>
       </c>
       <c r="E97" t="s">
@@ -2474,7 +2695,7 @@
       <c r="C98">
         <v>1</v>
       </c>
-      <c r="D98" s="14" t="s">
+      <c r="D98" s="13" t="s">
         <v>212</v>
       </c>
       <c r="E98" t="s">
@@ -2491,7 +2712,7 @@
       <c r="C99">
         <v>1</v>
       </c>
-      <c r="D99" s="14" t="s">
+      <c r="D99" s="13" t="s">
         <v>219</v>
       </c>
       <c r="E99" t="s">
@@ -2508,7 +2729,7 @@
       <c r="C100">
         <v>1</v>
       </c>
-      <c r="D100" s="14" t="s">
+      <c r="D100" s="13" t="s">
         <v>206</v>
       </c>
       <c r="E100" t="s">
@@ -2525,7 +2746,7 @@
       <c r="C101">
         <v>1</v>
       </c>
-      <c r="D101" s="14" t="s">
+      <c r="D101" s="13" t="s">
         <v>207</v>
       </c>
       <c r="E101" t="s">
@@ -2542,7 +2763,7 @@
       <c r="C102">
         <v>4</v>
       </c>
-      <c r="D102" s="14" t="s">
+      <c r="D102" s="13" t="s">
         <v>208</v>
       </c>
       <c r="E102" t="s">
@@ -2559,7 +2780,7 @@
       <c r="C103">
         <v>1</v>
       </c>
-      <c r="D103" s="14" t="s">
+      <c r="D103" s="13" t="s">
         <v>209</v>
       </c>
       <c r="E103" t="s">
@@ -2576,7 +2797,7 @@
       <c r="C105">
         <v>1</v>
       </c>
-      <c r="D105" s="15">
+      <c r="D105" s="14">
         <v>38359</v>
       </c>
       <c r="E105" t="s">
@@ -2602,23 +2823,79 @@
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>92</v>
+        <v>220</v>
       </c>
       <c r="C109">
-        <v>1</v>
-      </c>
-      <c r="D109" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
+        <v>221</v>
+      </c>
+      <c r="C110">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>222</v>
+      </c>
+      <c r="C111">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A112" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" t="s">
+        <v>224</v>
+      </c>
+      <c r="C113">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" t="s">
+        <v>225</v>
+      </c>
+      <c r="C114">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" t="s">
+        <v>226</v>
+      </c>
+      <c r="C115">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>92</v>
+      </c>
+      <c r="C117">
+        <v>1</v>
+      </c>
+      <c r="D117" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
         <v>93</v>
       </c>
-      <c r="C110">
+      <c r="C118">
         <v>1</v>
       </c>
-      <c r="D110" t="s">
+      <c r="D118" t="s">
         <v>95</v>
       </c>
     </row>
